--- a/Data/Recogida_datos.xlsx
+++ b/Data/Recogida_datos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexd\Ironhack\Proyectos\Project5_DA_Ironhack-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexd\Ironhack\Proyectos\Project5_DA_Ironhack-\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C9C1FB-6808-4EF0-A0AC-4822904B66E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464194C3-206C-4BAC-976B-4E577246F85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21633" windowHeight="11531" xr2:uid="{F00D3FBA-C7C7-4EA6-961F-1222E268C18F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
   <si>
     <t>User</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>Media items por grupo</t>
   </si>
 </sst>
 </file>
@@ -444,11 +447,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DF2513-1047-41AB-9BB1-CF093BAED419}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <cols>
@@ -457,19 +458,20 @@
     <col min="3" max="3" width="34.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.796875" style="1"/>
+    <col min="6" max="6" width="29.09765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,34 +488,37 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -530,34 +535,37 @@
         <v>2</v>
       </c>
       <c r="F2" s="1">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="G2" s="1">
         <v>70</v>
       </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
       <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
         <v>41</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>145</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>17</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>4</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -574,34 +582,37 @@
         <v>5</v>
       </c>
       <c r="F3" s="1">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="G3" s="1">
         <v>58</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
       <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
         <v>5</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>118</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>18</v>
       </c>
-      <c r="K3" s="1">
-        <v>3</v>
-      </c>
       <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -618,34 +629,37 @@
         <v>6</v>
       </c>
       <c r="F4" s="1">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="G4" s="1">
         <v>62</v>
       </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
       <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
         <v>53</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>158</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>19</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>4</v>
       </c>
-      <c r="L4" s="1">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -662,34 +676,37 @@
         <v>4</v>
       </c>
       <c r="F5" s="1">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="G5" s="1">
         <v>73</v>
       </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
       <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
         <v>26</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>210</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>12</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>4</v>
       </c>
-      <c r="L5" s="1">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -706,34 +723,37 @@
         <v>8</v>
       </c>
       <c r="F6" s="1">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="G6" s="1">
         <v>160</v>
       </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
       <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
         <v>70</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>241</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>24</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>4</v>
       </c>
-      <c r="L6" s="1">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -750,34 +770,37 @@
         <v>5</v>
       </c>
       <c r="F7" s="1">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="G7" s="1">
         <v>38</v>
       </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
       <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
         <v>40</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>89</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>15</v>
       </c>
-      <c r="K7" s="1">
-        <v>3</v>
-      </c>
       <c r="L7" s="1">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -794,34 +817,37 @@
         <v>4</v>
       </c>
       <c r="F8" s="1">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="G8" s="1">
         <v>85</v>
       </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
       <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
         <v>50</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>161</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>9</v>
       </c>
-      <c r="K8" s="1">
-        <v>3</v>
-      </c>
       <c r="L8" s="1">
-        <v>1</v>
-      </c>
-      <c r="M8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -838,34 +864,37 @@
         <v>5</v>
       </c>
       <c r="F9" s="1">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="G9" s="1">
         <v>62</v>
       </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
       <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
         <v>118</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>205</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>20</v>
       </c>
-      <c r="K9" s="1">
-        <v>3</v>
-      </c>
       <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -882,34 +911,37 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="G10" s="1">
         <v>118</v>
       </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
       <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
         <v>9</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>167</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>4</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <v>7</v>
       </c>
-      <c r="L10" s="1">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -926,37 +958,40 @@
         <v>5</v>
       </c>
       <c r="F11" s="1">
+        <v>5.4444444444444446</v>
+      </c>
+      <c r="G11" s="1">
         <f>60*2+33</f>
         <v>153</v>
       </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
       <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
         <v>25</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <f>3*60+23</f>
         <v>203</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <f>1+18+9</f>
         <v>28</v>
       </c>
-      <c r="K11" s="1">
-        <v>3</v>
-      </c>
       <c r="L11" s="1">
-        <v>1</v>
-      </c>
-      <c r="M11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -973,37 +1008,40 @@
         <v>5</v>
       </c>
       <c r="F12" s="1">
+        <v>5.4444444444444446</v>
+      </c>
+      <c r="G12" s="1">
         <f>60+9</f>
         <v>69</v>
       </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
       <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
         <v>9</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <f>60+18</f>
         <v>78</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <f>3+10+9</f>
         <v>22</v>
       </c>
-      <c r="K12" s="1">
-        <v>3</v>
-      </c>
       <c r="L12" s="1">
-        <v>1</v>
-      </c>
-      <c r="M12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O12" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1020,36 +1058,39 @@
         <v>6</v>
       </c>
       <c r="F13" s="1">
+        <v>5.4444444444444446</v>
+      </c>
+      <c r="G13" s="1">
         <v>34</v>
       </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
       <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
         <v>35</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <f>60+14</f>
         <v>74</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <f>21</f>
         <v>21</v>
       </c>
-      <c r="K13" s="1">
-        <v>3</v>
-      </c>
       <c r="L13" s="1">
-        <v>1</v>
-      </c>
-      <c r="M13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1066,35 +1107,38 @@
         <v>2</v>
       </c>
       <c r="F14" s="1">
+        <v>5.4444444444444446</v>
+      </c>
+      <c r="G14" s="1">
         <v>36</v>
       </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
       <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
         <v>19</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>59</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <f>1+4+9</f>
         <v>14</v>
       </c>
-      <c r="K14" s="1">
-        <v>3</v>
-      </c>
       <c r="L14" s="1">
-        <v>1</v>
-      </c>
-      <c r="M14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="1">
+      <c r="O14" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1112,36 +1156,39 @@
         <v>10</v>
       </c>
       <c r="F15" s="1">
+        <v>5.4444444444444446</v>
+      </c>
+      <c r="G15" s="1">
         <v>47</v>
       </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
       <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
         <v>58</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <f>60*2+50</f>
         <v>170</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <f>1+8+9+5</f>
         <v>23</v>
       </c>
-      <c r="K15" s="1">
-        <v>3</v>
-      </c>
       <c r="L15" s="1">
-        <v>1</v>
-      </c>
-      <c r="M15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="1">
+      <c r="O15" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1158,36 +1205,39 @@
         <v>6</v>
       </c>
       <c r="F16" s="1">
+        <v>5.4444444444444446</v>
+      </c>
+      <c r="G16" s="1">
         <v>49</v>
       </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
       <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
         <v>25</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <f>82</f>
         <v>82</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <f>1+12+3+9</f>
         <v>25</v>
       </c>
-      <c r="K16" s="1">
-        <v>3</v>
-      </c>
       <c r="L16" s="1">
-        <v>1</v>
-      </c>
-      <c r="M16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="1">
+      <c r="O16" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1204,36 +1254,39 @@
         <v>5</v>
       </c>
       <c r="F17" s="1">
+        <v>5.4444444444444446</v>
+      </c>
+      <c r="G17" s="1">
         <v>17</v>
       </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
       <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
         <v>35</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <f>60+56</f>
         <v>116</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <f>1+11+10</f>
         <v>22</v>
       </c>
-      <c r="K17" s="1">
-        <v>3</v>
-      </c>
       <c r="L17" s="1">
-        <v>1</v>
-      </c>
-      <c r="M17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O17" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1250,35 +1303,38 @@
         <v>6</v>
       </c>
       <c r="F18" s="1">
+        <v>5.4444444444444446</v>
+      </c>
+      <c r="G18" s="1">
         <v>45</v>
       </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
       <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
         <v>21</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <v>70</v>
       </c>
-      <c r="J18" s="1">
+      <c r="K18" s="1">
         <f>1+9+9+6</f>
         <v>25</v>
       </c>
-      <c r="K18" s="1">
-        <v>3</v>
-      </c>
       <c r="L18" s="1">
-        <v>1</v>
-      </c>
-      <c r="M18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N18" s="1">
+      <c r="O18" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1295,31 +1351,34 @@
         <v>4</v>
       </c>
       <c r="F19" s="1">
+        <v>5.4444444444444446</v>
+      </c>
+      <c r="G19" s="1">
         <v>43</v>
       </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
       <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
         <v>32</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <v>80</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K19" s="1">
         <f>1+3+9</f>
         <v>13</v>
       </c>
-      <c r="K19" s="1">
-        <v>3</v>
-      </c>
       <c r="L19" s="1">
-        <v>1</v>
-      </c>
-      <c r="M19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N19" s="1">
+      <c r="O19" s="1">
         <v>41</v>
       </c>
     </row>

--- a/Data/Recogida_datos.xlsx
+++ b/Data/Recogida_datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexd\Ironhack\Proyectos\Project5_DA_Ironhack-\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464194C3-206C-4BAC-976B-4E577246F85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D72FCD1-DCFA-4B72-843E-C2307EA55844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21633" windowHeight="11531" xr2:uid="{F00D3FBA-C7C7-4EA6-961F-1222E268C18F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="19">
   <si>
     <t>User</t>
   </si>
@@ -447,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DF2513-1047-41AB-9BB1-CF093BAED419}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -946,49 +946,46 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E11" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1">
-        <v>5.4444444444444446</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="G11" s="1">
-        <f>60*2+33</f>
-        <v>153</v>
+        <v>70</v>
       </c>
       <c r="H11" s="1">
         <v>1</v>
       </c>
       <c r="I11" s="1">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="J11" s="1">
-        <f>3*60+23</f>
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="K11" s="1">
-        <f>1+18+9</f>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="L11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="O11" s="1">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -996,40 +993,37 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E12" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12" s="1">
-        <v>5.4444444444444446</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="G12" s="1">
-        <f>60+9</f>
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H12" s="1">
         <v>1</v>
       </c>
       <c r="I12" s="1">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="J12" s="1">
-        <f>60+18</f>
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="K12" s="1">
-        <f>3+10+9</f>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L12" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M12" s="1">
         <v>1</v>
@@ -1038,7 +1032,7 @@
         <v>15</v>
       </c>
       <c r="O12" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -1046,45 +1040,43 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E13" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F13" s="1">
-        <v>5.4444444444444446</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="G13" s="1">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
       </c>
       <c r="I13" s="1">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J13" s="1">
-        <f>60+14</f>
-        <v>74</v>
+        <v>210</v>
       </c>
       <c r="K13" s="1">
-        <f>21</f>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L13" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M13" s="1">
         <v>1</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O13" s="1">
         <v>25</v>
@@ -1095,35 +1087,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E14" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F14" s="1">
-        <v>5.4444444444444446</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="G14" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
       </c>
       <c r="I14" s="1">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="J14" s="1">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="K14" s="1">
-        <f>1+4+9</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L14" s="1">
         <v>3</v>
@@ -1135,7 +1126,7 @@
         <v>17</v>
       </c>
       <c r="O14" s="1">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -1143,49 +1134,46 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <f>64</f>
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="E15" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F15" s="1">
-        <v>5.4444444444444446</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="G15" s="1">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="J15" s="1">
-        <f>60*2+50</f>
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="K15" s="1">
-        <f>1+8+9+5</f>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L15" s="1">
         <v>3</v>
       </c>
       <c r="M15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="O15" s="1">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -1193,48 +1181,46 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>28</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="G16" s="1">
+        <v>118</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>9</v>
+      </c>
+      <c r="J16" s="1">
+        <v>167</v>
+      </c>
+      <c r="K16" s="1">
+        <v>4</v>
+      </c>
+      <c r="L16" s="1">
         <v>7</v>
       </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
-        <v>9</v>
-      </c>
-      <c r="E16" s="1">
-        <v>6</v>
-      </c>
-      <c r="F16" s="1">
-        <v>5.4444444444444446</v>
-      </c>
-      <c r="G16" s="1">
-        <v>49</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1">
-        <v>25</v>
-      </c>
-      <c r="J16" s="1">
-        <f>82</f>
-        <v>82</v>
-      </c>
-      <c r="K16" s="1">
-        <f>1+12+3+9</f>
-        <v>25</v>
-      </c>
-      <c r="L16" s="1">
-        <v>3</v>
-      </c>
       <c r="M16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O16" s="1">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -1245,10 +1231,10 @@
         <v>7</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E17" s="1">
         <v>5</v>
@@ -1257,21 +1243,22 @@
         <v>5.4444444444444446</v>
       </c>
       <c r="G17" s="1">
-        <v>17</v>
+        <f>60*2+33</f>
+        <v>153</v>
       </c>
       <c r="H17" s="1">
         <v>1</v>
       </c>
       <c r="I17" s="1">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J17" s="1">
-        <f>60+56</f>
-        <v>116</v>
+        <f>3*60+23</f>
+        <v>203</v>
       </c>
       <c r="K17" s="1">
-        <f>1+11+10</f>
-        <v>22</v>
+        <f>1+18+9</f>
+        <v>28</v>
       </c>
       <c r="L17" s="1">
         <v>3</v>
@@ -1280,10 +1267,10 @@
         <v>1</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O17" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -1294,32 +1281,34 @@
         <v>7</v>
       </c>
       <c r="C18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E18" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" s="1">
         <v>5.4444444444444446</v>
       </c>
       <c r="G18" s="1">
-        <v>45</v>
+        <f>60+9</f>
+        <v>69</v>
       </c>
       <c r="H18" s="1">
         <v>1</v>
       </c>
       <c r="I18" s="1">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="J18" s="1">
-        <v>70</v>
+        <f>60+18</f>
+        <v>78</v>
       </c>
       <c r="K18" s="1">
-        <f>1+9+9+6</f>
-        <v>25</v>
+        <f>3+10+9</f>
+        <v>22</v>
       </c>
       <c r="L18" s="1">
         <v>3</v>
@@ -1331,7 +1320,7 @@
         <v>15</v>
       </c>
       <c r="O18" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -1348,37 +1337,612 @@
         <v>5</v>
       </c>
       <c r="E19" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F19" s="1">
         <v>5.4444444444444446</v>
       </c>
       <c r="G19" s="1">
+        <v>34</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>35</v>
+      </c>
+      <c r="J19" s="1">
+        <f>60+14</f>
+        <v>74</v>
+      </c>
+      <c r="K19" s="1">
+        <f>21</f>
+        <v>21</v>
+      </c>
+      <c r="L19" s="1">
+        <v>3</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O19" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>5.4444444444444446</v>
+      </c>
+      <c r="G20" s="1">
+        <v>36</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>19</v>
+      </c>
+      <c r="J20" s="1">
+        <v>59</v>
+      </c>
+      <c r="K20" s="1">
+        <f>1+4+9</f>
+        <v>14</v>
+      </c>
+      <c r="L20" s="1">
+        <v>3</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <f>64</f>
+        <v>64</v>
+      </c>
+      <c r="E21" s="1">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1">
+        <v>5.4444444444444446</v>
+      </c>
+      <c r="G21" s="1">
+        <v>47</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>58</v>
+      </c>
+      <c r="J21" s="1">
+        <f>60*2+50</f>
+        <v>170</v>
+      </c>
+      <c r="K21" s="1">
+        <f>1+8+9+5</f>
+        <v>23</v>
+      </c>
+      <c r="L21" s="1">
+        <v>3</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1">
+        <v>6</v>
+      </c>
+      <c r="F22" s="1">
+        <v>5.4444444444444446</v>
+      </c>
+      <c r="G22" s="1">
+        <v>49</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>25</v>
+      </c>
+      <c r="J22" s="1">
+        <f>82</f>
+        <v>82</v>
+      </c>
+      <c r="K22" s="1">
+        <f>1+12+3+9</f>
+        <v>25</v>
+      </c>
+      <c r="L22" s="1">
+        <v>3</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1">
+        <v>5</v>
+      </c>
+      <c r="F23" s="1">
+        <v>5.4444444444444446</v>
+      </c>
+      <c r="G23" s="1">
+        <v>17</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>35</v>
+      </c>
+      <c r="J23" s="1">
+        <f>60+56</f>
+        <v>116</v>
+      </c>
+      <c r="K23" s="1">
+        <f>1+11+10</f>
+        <v>22</v>
+      </c>
+      <c r="L23" s="1">
+        <v>3</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O23" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1">
+        <v>6</v>
+      </c>
+      <c r="F24" s="1">
+        <v>5.4444444444444446</v>
+      </c>
+      <c r="G24" s="1">
+        <v>45</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>21</v>
+      </c>
+      <c r="J24" s="1">
+        <v>70</v>
+      </c>
+      <c r="K24" s="1">
+        <f>1+9+9+6</f>
+        <v>25</v>
+      </c>
+      <c r="L24" s="1">
+        <v>3</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O24" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>5</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1">
+        <v>5.4444444444444446</v>
+      </c>
+      <c r="G25" s="1">
         <v>43</v>
       </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
-      <c r="I19" s="1">
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
         <v>32</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J25" s="1">
         <v>80</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K25" s="1">
         <f>1+3+9</f>
         <v>13</v>
       </c>
-      <c r="L19" s="1">
-        <v>3</v>
-      </c>
-      <c r="M19" s="1">
-        <v>1</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O19" s="1">
+      <c r="L25" s="1">
+        <v>3</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O25" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>17</v>
+      </c>
+      <c r="E26" s="1">
+        <v>5</v>
+      </c>
+      <c r="F26" s="1">
+        <v>5.4444444444444446</v>
+      </c>
+      <c r="G26" s="1">
+        <v>153</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>25</v>
+      </c>
+      <c r="J26" s="1">
+        <v>203</v>
+      </c>
+      <c r="K26" s="1">
+        <v>28</v>
+      </c>
+      <c r="L26" s="1">
+        <v>3</v>
+      </c>
+      <c r="M26" s="1">
+        <v>1</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O26" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>5</v>
+      </c>
+      <c r="E27" s="1">
+        <v>6</v>
+      </c>
+      <c r="F27" s="1">
+        <v>5.4444444444444446</v>
+      </c>
+      <c r="G27" s="1">
+        <v>34</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>35</v>
+      </c>
+      <c r="J27" s="1">
+        <v>74</v>
+      </c>
+      <c r="K27" s="1">
+        <v>21</v>
+      </c>
+      <c r="L27" s="1">
+        <v>3</v>
+      </c>
+      <c r="M27" s="1">
+        <v>1</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O27" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>5.4444444444444446</v>
+      </c>
+      <c r="G28" s="1">
+        <v>36</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1">
+        <v>19</v>
+      </c>
+      <c r="J28" s="1">
+        <v>59</v>
+      </c>
+      <c r="K28" s="1">
+        <v>14</v>
+      </c>
+      <c r="L28" s="1">
+        <v>3</v>
+      </c>
+      <c r="M28" s="1">
+        <v>1</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O28" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>9</v>
+      </c>
+      <c r="E29" s="1">
+        <v>6</v>
+      </c>
+      <c r="F29" s="1">
+        <v>5.4444444444444446</v>
+      </c>
+      <c r="G29" s="1">
+        <v>49</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1">
+        <v>25</v>
+      </c>
+      <c r="J29" s="1">
+        <v>82</v>
+      </c>
+      <c r="K29" s="1">
+        <v>25</v>
+      </c>
+      <c r="L29" s="1">
+        <v>3</v>
+      </c>
+      <c r="M29" s="1">
+        <v>1</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O29" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>4</v>
+      </c>
+      <c r="E30" s="1">
+        <v>5</v>
+      </c>
+      <c r="F30" s="1">
+        <v>5.4444444444444446</v>
+      </c>
+      <c r="G30" s="1">
+        <v>17</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1">
+        <v>35</v>
+      </c>
+      <c r="J30" s="1">
+        <v>116</v>
+      </c>
+      <c r="K30" s="1">
+        <v>22</v>
+      </c>
+      <c r="L30" s="1">
+        <v>3</v>
+      </c>
+      <c r="M30" s="1">
+        <v>1</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O30" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>5</v>
+      </c>
+      <c r="E31" s="1">
+        <v>4</v>
+      </c>
+      <c r="F31" s="1">
+        <v>5.4444444444444446</v>
+      </c>
+      <c r="G31" s="1">
+        <v>43</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1">
+        <v>32</v>
+      </c>
+      <c r="J31" s="1">
+        <v>80</v>
+      </c>
+      <c r="K31" s="1">
+        <v>13</v>
+      </c>
+      <c r="L31" s="1">
+        <v>3</v>
+      </c>
+      <c r="M31" s="1">
+        <v>1</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O31" s="1">
         <v>41</v>
       </c>
     </row>

--- a/Data/Recogida_datos.xlsx
+++ b/Data/Recogida_datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexd\Ironhack\Proyectos\Project5_DA_Ironhack-\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D72FCD1-DCFA-4B72-843E-C2307EA55844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EAA29C-E05F-45FD-9D3C-F590FF422EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21633" windowHeight="11531" xr2:uid="{F00D3FBA-C7C7-4EA6-961F-1222E268C18F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
   <si>
     <t>User</t>
   </si>
@@ -447,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DF2513-1047-41AB-9BB1-CF093BAED419}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -946,46 +946,49 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E11" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F11" s="1">
-        <v>4.333333333333333</v>
+        <v>5.4444444444444446</v>
       </c>
       <c r="G11" s="1">
-        <v>70</v>
+        <f>60*2+33</f>
+        <v>153</v>
       </c>
       <c r="H11" s="1">
         <v>1</v>
       </c>
       <c r="I11" s="1">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="J11" s="1">
-        <v>145</v>
+        <f>3*60+23</f>
+        <v>203</v>
       </c>
       <c r="K11" s="1">
-        <v>17</v>
+        <f>1+18+9</f>
+        <v>28</v>
       </c>
       <c r="L11" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="O11" s="1">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -993,37 +996,40 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E12" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" s="1">
-        <v>4.333333333333333</v>
+        <v>5.4444444444444446</v>
       </c>
       <c r="G12" s="1">
-        <v>62</v>
+        <f>60+9</f>
+        <v>69</v>
       </c>
       <c r="H12" s="1">
         <v>1</v>
       </c>
       <c r="I12" s="1">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1">
-        <v>158</v>
+        <f>60+18</f>
+        <v>78</v>
       </c>
       <c r="K12" s="1">
-        <v>19</v>
+        <f>3+10+9</f>
+        <v>22</v>
       </c>
       <c r="L12" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M12" s="1">
         <v>1</v>
@@ -1032,7 +1038,7 @@
         <v>15</v>
       </c>
       <c r="O12" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -1040,43 +1046,45 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="E13" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F13" s="1">
-        <v>4.333333333333333</v>
+        <v>5.4444444444444446</v>
       </c>
       <c r="G13" s="1">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
       </c>
       <c r="I13" s="1">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="J13" s="1">
-        <v>210</v>
+        <f>60+14</f>
+        <v>74</v>
       </c>
       <c r="K13" s="1">
-        <v>12</v>
+        <f>21</f>
+        <v>21</v>
       </c>
       <c r="L13" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M13" s="1">
         <v>1</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O13" s="1">
         <v>25</v>
@@ -1087,34 +1095,35 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E14" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F14" s="1">
-        <v>4.333333333333333</v>
+        <v>5.4444444444444446</v>
       </c>
       <c r="G14" s="1">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
       </c>
       <c r="I14" s="1">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J14" s="1">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="K14" s="1">
-        <v>15</v>
+        <f>1+4+9</f>
+        <v>14</v>
       </c>
       <c r="L14" s="1">
         <v>3</v>
@@ -1126,7 +1135,7 @@
         <v>17</v>
       </c>
       <c r="O14" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -1134,46 +1143,49 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>26</v>
+        <f>64</f>
+        <v>64</v>
       </c>
       <c r="E15" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F15" s="1">
-        <v>4.333333333333333</v>
+        <v>5.4444444444444446</v>
       </c>
       <c r="G15" s="1">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="J15" s="1">
-        <v>205</v>
+        <f>60*2+50</f>
+        <v>170</v>
       </c>
       <c r="K15" s="1">
-        <v>20</v>
+        <f>1+8+9+5</f>
+        <v>23</v>
       </c>
       <c r="L15" s="1">
         <v>3</v>
       </c>
       <c r="M15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="O15" s="1">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -1181,46 +1193,48 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F16" s="1">
-        <v>4.333333333333333</v>
+        <v>5.4444444444444446</v>
       </c>
       <c r="G16" s="1">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="1">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="J16" s="1">
-        <v>167</v>
+        <f>82</f>
+        <v>82</v>
       </c>
       <c r="K16" s="1">
-        <v>4</v>
+        <f>1+12+3+9</f>
+        <v>25</v>
       </c>
       <c r="L16" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O16" s="1">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -1231,10 +1245,10 @@
         <v>7</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E17" s="1">
         <v>5</v>
@@ -1243,22 +1257,21 @@
         <v>5.4444444444444446</v>
       </c>
       <c r="G17" s="1">
-        <f>60*2+33</f>
-        <v>153</v>
+        <v>17</v>
       </c>
       <c r="H17" s="1">
         <v>1</v>
       </c>
       <c r="I17" s="1">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J17" s="1">
-        <f>3*60+23</f>
-        <v>203</v>
+        <f>60+56</f>
+        <v>116</v>
       </c>
       <c r="K17" s="1">
-        <f>1+18+9</f>
-        <v>28</v>
+        <f>1+11+10</f>
+        <v>22</v>
       </c>
       <c r="L17" s="1">
         <v>3</v>
@@ -1267,10 +1280,10 @@
         <v>1</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O17" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -1281,34 +1294,32 @@
         <v>7</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E18" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F18" s="1">
         <v>5.4444444444444446</v>
       </c>
       <c r="G18" s="1">
-        <f>60+9</f>
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="H18" s="1">
         <v>1</v>
       </c>
       <c r="I18" s="1">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="J18" s="1">
-        <f>60+18</f>
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f>3+10+9</f>
-        <v>22</v>
+        <f>1+9+9+6</f>
+        <v>25</v>
       </c>
       <c r="L18" s="1">
         <v>3</v>
@@ -1320,7 +1331,7 @@
         <v>15</v>
       </c>
       <c r="O18" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -1337,27 +1348,26 @@
         <v>5</v>
       </c>
       <c r="E19" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F19" s="1">
         <v>5.4444444444444446</v>
       </c>
       <c r="G19" s="1">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H19" s="1">
         <v>1</v>
       </c>
       <c r="I19" s="1">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J19" s="1">
-        <f>60+14</f>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f>21</f>
-        <v>21</v>
+        <f>1+3+9</f>
+        <v>13</v>
       </c>
       <c r="L19" s="1">
         <v>3</v>
@@ -1369,580 +1379,6 @@
         <v>17</v>
       </c>
       <c r="O19" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2</v>
-      </c>
-      <c r="F20" s="1">
-        <v>5.4444444444444446</v>
-      </c>
-      <c r="G20" s="1">
-        <v>36</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1">
-        <v>19</v>
-      </c>
-      <c r="J20" s="1">
-        <v>59</v>
-      </c>
-      <c r="K20" s="1">
-        <f>1+4+9</f>
-        <v>14</v>
-      </c>
-      <c r="L20" s="1">
-        <v>3</v>
-      </c>
-      <c r="M20" s="1">
-        <v>1</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O20" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1">
-        <f>64</f>
-        <v>64</v>
-      </c>
-      <c r="E21" s="1">
-        <v>10</v>
-      </c>
-      <c r="F21" s="1">
-        <v>5.4444444444444446</v>
-      </c>
-      <c r="G21" s="1">
-        <v>47</v>
-      </c>
-      <c r="H21" s="1">
-        <v>1</v>
-      </c>
-      <c r="I21" s="1">
-        <v>58</v>
-      </c>
-      <c r="J21" s="1">
-        <f>60*2+50</f>
-        <v>170</v>
-      </c>
-      <c r="K21" s="1">
-        <f>1+8+9+5</f>
-        <v>23</v>
-      </c>
-      <c r="L21" s="1">
-        <v>3</v>
-      </c>
-      <c r="M21" s="1">
-        <v>1</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O21" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1">
-        <v>9</v>
-      </c>
-      <c r="E22" s="1">
-        <v>6</v>
-      </c>
-      <c r="F22" s="1">
-        <v>5.4444444444444446</v>
-      </c>
-      <c r="G22" s="1">
-        <v>49</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1</v>
-      </c>
-      <c r="I22" s="1">
-        <v>25</v>
-      </c>
-      <c r="J22" s="1">
-        <f>82</f>
-        <v>82</v>
-      </c>
-      <c r="K22" s="1">
-        <f>1+12+3+9</f>
-        <v>25</v>
-      </c>
-      <c r="L22" s="1">
-        <v>3</v>
-      </c>
-      <c r="M22" s="1">
-        <v>1</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O22" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>4</v>
-      </c>
-      <c r="E23" s="1">
-        <v>5</v>
-      </c>
-      <c r="F23" s="1">
-        <v>5.4444444444444446</v>
-      </c>
-      <c r="G23" s="1">
-        <v>17</v>
-      </c>
-      <c r="H23" s="1">
-        <v>1</v>
-      </c>
-      <c r="I23" s="1">
-        <v>35</v>
-      </c>
-      <c r="J23" s="1">
-        <f>60+56</f>
-        <v>116</v>
-      </c>
-      <c r="K23" s="1">
-        <f>1+11+10</f>
-        <v>22</v>
-      </c>
-      <c r="L23" s="1">
-        <v>3</v>
-      </c>
-      <c r="M23" s="1">
-        <v>1</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O23" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1">
-        <v>4</v>
-      </c>
-      <c r="E24" s="1">
-        <v>6</v>
-      </c>
-      <c r="F24" s="1">
-        <v>5.4444444444444446</v>
-      </c>
-      <c r="G24" s="1">
-        <v>45</v>
-      </c>
-      <c r="H24" s="1">
-        <v>1</v>
-      </c>
-      <c r="I24" s="1">
-        <v>21</v>
-      </c>
-      <c r="J24" s="1">
-        <v>70</v>
-      </c>
-      <c r="K24" s="1">
-        <f>1+9+9+6</f>
-        <v>25</v>
-      </c>
-      <c r="L24" s="1">
-        <v>3</v>
-      </c>
-      <c r="M24" s="1">
-        <v>1</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O24" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>5</v>
-      </c>
-      <c r="E25" s="1">
-        <v>4</v>
-      </c>
-      <c r="F25" s="1">
-        <v>5.4444444444444446</v>
-      </c>
-      <c r="G25" s="1">
-        <v>43</v>
-      </c>
-      <c r="H25" s="1">
-        <v>1</v>
-      </c>
-      <c r="I25" s="1">
-        <v>32</v>
-      </c>
-      <c r="J25" s="1">
-        <v>80</v>
-      </c>
-      <c r="K25" s="1">
-        <f>1+3+9</f>
-        <v>13</v>
-      </c>
-      <c r="L25" s="1">
-        <v>3</v>
-      </c>
-      <c r="M25" s="1">
-        <v>1</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O25" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1">
-        <v>17</v>
-      </c>
-      <c r="E26" s="1">
-        <v>5</v>
-      </c>
-      <c r="F26" s="1">
-        <v>5.4444444444444446</v>
-      </c>
-      <c r="G26" s="1">
-        <v>153</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1</v>
-      </c>
-      <c r="I26" s="1">
-        <v>25</v>
-      </c>
-      <c r="J26" s="1">
-        <v>203</v>
-      </c>
-      <c r="K26" s="1">
-        <v>28</v>
-      </c>
-      <c r="L26" s="1">
-        <v>3</v>
-      </c>
-      <c r="M26" s="1">
-        <v>1</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O26" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
-        <v>5</v>
-      </c>
-      <c r="E27" s="1">
-        <v>6</v>
-      </c>
-      <c r="F27" s="1">
-        <v>5.4444444444444446</v>
-      </c>
-      <c r="G27" s="1">
-        <v>34</v>
-      </c>
-      <c r="H27" s="1">
-        <v>1</v>
-      </c>
-      <c r="I27" s="1">
-        <v>35</v>
-      </c>
-      <c r="J27" s="1">
-        <v>74</v>
-      </c>
-      <c r="K27" s="1">
-        <v>21</v>
-      </c>
-      <c r="L27" s="1">
-        <v>3</v>
-      </c>
-      <c r="M27" s="1">
-        <v>1</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O27" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1">
-        <v>2</v>
-      </c>
-      <c r="E28" s="1">
-        <v>2</v>
-      </c>
-      <c r="F28" s="1">
-        <v>5.4444444444444446</v>
-      </c>
-      <c r="G28" s="1">
-        <v>36</v>
-      </c>
-      <c r="H28" s="1">
-        <v>1</v>
-      </c>
-      <c r="I28" s="1">
-        <v>19</v>
-      </c>
-      <c r="J28" s="1">
-        <v>59</v>
-      </c>
-      <c r="K28" s="1">
-        <v>14</v>
-      </c>
-      <c r="L28" s="1">
-        <v>3</v>
-      </c>
-      <c r="M28" s="1">
-        <v>1</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O28" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1">
-        <v>9</v>
-      </c>
-      <c r="E29" s="1">
-        <v>6</v>
-      </c>
-      <c r="F29" s="1">
-        <v>5.4444444444444446</v>
-      </c>
-      <c r="G29" s="1">
-        <v>49</v>
-      </c>
-      <c r="H29" s="1">
-        <v>1</v>
-      </c>
-      <c r="I29" s="1">
-        <v>25</v>
-      </c>
-      <c r="J29" s="1">
-        <v>82</v>
-      </c>
-      <c r="K29" s="1">
-        <v>25</v>
-      </c>
-      <c r="L29" s="1">
-        <v>3</v>
-      </c>
-      <c r="M29" s="1">
-        <v>1</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O29" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1">
-        <v>4</v>
-      </c>
-      <c r="E30" s="1">
-        <v>5</v>
-      </c>
-      <c r="F30" s="1">
-        <v>5.4444444444444446</v>
-      </c>
-      <c r="G30" s="1">
-        <v>17</v>
-      </c>
-      <c r="H30" s="1">
-        <v>1</v>
-      </c>
-      <c r="I30" s="1">
-        <v>35</v>
-      </c>
-      <c r="J30" s="1">
-        <v>116</v>
-      </c>
-      <c r="K30" s="1">
-        <v>22</v>
-      </c>
-      <c r="L30" s="1">
-        <v>3</v>
-      </c>
-      <c r="M30" s="1">
-        <v>1</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O30" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1">
-        <v>5</v>
-      </c>
-      <c r="E31" s="1">
-        <v>4</v>
-      </c>
-      <c r="F31" s="1">
-        <v>5.4444444444444446</v>
-      </c>
-      <c r="G31" s="1">
-        <v>43</v>
-      </c>
-      <c r="H31" s="1">
-        <v>1</v>
-      </c>
-      <c r="I31" s="1">
-        <v>32</v>
-      </c>
-      <c r="J31" s="1">
-        <v>80</v>
-      </c>
-      <c r="K31" s="1">
-        <v>13</v>
-      </c>
-      <c r="L31" s="1">
-        <v>3</v>
-      </c>
-      <c r="M31" s="1">
-        <v>1</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O31" s="1">
         <v>41</v>
       </c>
     </row>
